--- a/AddressBook/接口.xlsx
+++ b/AddressBook/接口.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="100" windowWidth="16800" windowHeight="11560"/>
+    <workbookView xWindow="1940" yWindow="100" windowWidth="18320" windowHeight="12980" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="用户注册" sheetId="1" r:id="rId1"/>
     <sheet name="用户登录" sheetId="2" r:id="rId2"/>
     <sheet name="上传" sheetId="3" r:id="rId3"/>
     <sheet name="下载" sheetId="4" r:id="rId4"/>
+    <sheet name="意见反馈" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,12 +222,105 @@
     <t>http://www.nilayahome.com/iphone/fileup/download.asp?FileName=12345678901</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>注册成功：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交成功！</t>
+  </si>
+  <si>
+    <t>注册失败：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或者密码不能够为空！</t>
+  </si>
+  <si>
+    <t>密码不一致，请重新输入!</t>
+  </si>
+  <si>
+    <t>用户名已存在!</t>
+  </si>
+  <si>
+    <t>注册失败，请检查是否各项目输入正确！</t>
+  </si>
+  <si>
+    <t>登录成功：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>登录失败：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您输入的用户名或密码有误，请重新输入！</t>
+  </si>
+  <si>
+    <t>上传成功：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件'filename'上传成功，保存位置'filepath',文件大小filesize字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传失败：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面以外各种消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nilayahome.com/iphone/sybook/booksave.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +358,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -305,13 +407,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
@@ -331,8 +436,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -625,11 +731,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -785,6 +889,37 @@
       </c>
       <c r="C13" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +938,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -864,6 +999,27 @@
         <v>30</v>
       </c>
     </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -877,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -936,6 +1092,22 @@
       </c>
       <c r="C6" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -955,9 +1127,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="14">
+    <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -971,7 +1148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="14">
+    <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -985,7 +1162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="14">
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -993,12 +1170,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="14">
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="14">
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -1006,17 +1183,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="14">
+    <row r="9" spans="2:5">
       <c r="C9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="14">
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="14">
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1024,14 +1201,122 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="14">
+    <row r="13" spans="2:5">
       <c r="C13" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
